--- a/nuon/instagram_comments_emma_kimmm.xlsx
+++ b/nuon/instagram_comments_emma_kimmm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7131,6 +7131,6806 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>C5gFjaWp1Ai</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>17971967243567275</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>다이렉트 보냈는데 초대가 수락되야한다고 해요^^^^😂😂😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1712614668</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2212845512</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>bbongdda_da</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>마이콜</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>C5gFjaWp1Ai</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>18308915851182910</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>공부 시져시져 😂😂😂😂 그냥 딱 알려주세요 좋은점만요 😍</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1712581932</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>53264454</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>____onnu____</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>류온유</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>18118956292357419</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>@emma_kimmm 홈케어는 어떤제품으로 하세요?^^피부 너무 부러워요~^^</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>@emma_kimmm</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1.796343402572014e+16</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1712927916</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>58516331292</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>elizabeth_arona</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>18097969222404916</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>@hye_s_who 와우 대박!!! 너무 다행이에요 ㅠㅠ 저도 그 고통 너무 잘 알아서 복용하기 시작했었거든요…</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>@hye_s_who</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1.8035203543880948e+16</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1712231346</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>18035203543880947</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>아침과 저녁에 종아리 굵기가 너무 다르다가 자고나도 종아리가 여전히 부어 있어서 뭐가 문제일까 고민중에 우연히 별이님 라방서 이 제품 알게되어 2~3개월 복용했는데 종아리 압박스타킹에서 해방되고 종아리도 눈에 띄게 날씬해 졌어요. 이번엔 6박스 주문했어요 더 길게 복용하면 콜레스테롤 수치도 내려가지 않을까 기대해봅니다</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1712229361</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>21427216762</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>hye_s_who</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Hyei</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>18312873091181502</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1712216986</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>1999337674</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>elin_soyeon_park</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>📷 Memory•Irvine•CA</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>18259555702211977</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>@serenity_prayer1 ㅎㅎ 타기도하고 떡볶이 먹고 바로 잤더니 😂</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>@serenity_prayer1</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1.7916261776814006e+16</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1712182294</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>17916261776814006</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>엇 이동영상은 정유라인줄 순간 깜짝</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>8</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1712156572</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1524620578</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>serenity_prayer1</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>일상의기록</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>17862887976105261</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>@pexumarket 진짜 좋죠!! 효과 짱!! ♥️</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>@pexumarket</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1.802340567504196e+16</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1712125351</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>17963434025720139</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>@orange2471_ 피부관리 집에서 홈케어로 음청 한답니다 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>@orange2471_</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1.8040622260694988e+16</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1712125323</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>18040622260694988</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>피부 너무좋네요 😍타고나신건가용..? 아님 기초 뭐쓰시는지 알려주세용</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1712112700</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>16749939796</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>orange2471_</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>18023405675041958</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>효과짱좋음!👏이번에도 주문할꺼에요!</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1712109150</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>37597270668</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>pexumarket</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>백수네상회</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>C5R-txSyIsS</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>17859987048120934</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>😍</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1712108909</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>18163257652305983</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>@hye_s_who ㅎㅎ 이번에 하고 또 6개월 뒤에 돌아오니 참고해주세용</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>@hye_s_who</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1.842386905903173e+16</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1712029717</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>18069455947450560</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>@orange2471_ 따로 하는건 없어욤 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>@orange2471_</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1.7870329272083004e+16</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1712029703</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>18047304310648361</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>@ssongsong_a 요번에 돌아오면 또 6개월 뒤쯤 돌아오니 수량 체크후 구매 해주세용</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>@ssongsong_a</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1.7993654948617958e+16</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1712029696</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>18049406557620101</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>@yoo1495 린드버그입니다</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>@yoo1495</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1.84285459960036e+16</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1712029677</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>17973094877695795</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>@jihyun824 ㅋㅋㅋㅋ배더지는줄</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>@jihyun824</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1.7890960920004256e+16</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1712029672</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>18428545996003599</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>너무 이뿌세요😍😍😍
+혹시.안경테 정보 알수있을까요?</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1711970623</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>5798819657</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>yoo1495</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>17993654948617958</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>드디어!!!!!😢😢😢기다리고 있었어요ㅠㅠㅠㅠㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>1711952294</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>633583027</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>ssongsong_a</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>송송</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>18423869059031731</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>엄청 기돌렸어요..셀룰라인 공구~</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>1711949751</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>21427216762</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>hye_s_who</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Hyei</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>18037326007839447</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>😍😍</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1711948640</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>17870329272083003</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>머리 볼륨은 뭘로 관리하고 뭘로 볼륨 살리시나요?? 너무 부럽네여 ㅠㅠ😮😍</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1711948382</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>16749939796</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>orange2471_</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>C5NKsQHpZQg</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>17890960920004255</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>졸귀 ㅋㅋㅋㅋ🤍</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1711947401</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>1986169679</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>jihyun824</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>이지현</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>C4MzzuRpJ-b</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>17861251986069049</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>😍</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1709792999</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>C3hMGMyphNW</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>17950729322773035</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>@emma_kimmm 꼭사야겠오요 지굼봤어여 지갑을ㅜㅜ❤</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>@emma_kimmm</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1.8304604530147348e+16</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1710997551</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>1152771277</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>chloe._.lala</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>나규빈</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>C3hMGMyphNW</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>18304604530147348</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>@na._.joy 4/2일 입니다</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>@na._.joy</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1.8043573387728744e+16</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>1710991915</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>C3hMGMyphNW</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>18043573387728742</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>지갑 또 오픈 언제하나욤🙊🙏🏻❤️</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1710991170</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>1152771277</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>chloe._.lala</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>나규빈</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>C3hMGMyphNW</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>18020161559089649</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>@sweenie_jones 로에베 가죽셔츠 입니당</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>@sweenie_jones</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1.7894920337901306e+16</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>1708475275</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>C3hMGMyphNW</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>17877181917028772</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>😍</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>1708334776</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>C3hMGMyphNW</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>17894920337901306</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>별님 입고 계신 레더 셔츠 어디 제품이예요?</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>1708328184</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>3986061002</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>jiwon.mn</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Jiwon</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>C3WEtXxyi1A</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>17986665161446211</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>@rowinayy 고객님 하루 오픈해놓았어요</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>@rowinayy</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>1.801820789310969e+16</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1708476721</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>C3WEtXxyi1A</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>17890494047918149</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>@woomsy0715 구매 원하시는 분들이 계셔서 오늘 하루 오픈해놓았어용</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>@woomsy0715</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>1.832736895314085e+16</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1708476705</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>C3WEtXxyi1A</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>18065725729492997</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>@rowinayy 정말 구매의사가 있으실까용??? 본사랑 이야기해봐야해서용</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>@rowinayy</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1.801820789310969e+16</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>1708473925</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>C3WEtXxyi1A</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>18018207893109693</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>추가구매 어려울까요..?</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1708454451</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>630231214</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>rowinayy</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Rowina✨🐯</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>C3WEtXxyi1A</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>18254938537169829</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>@woomsy0715 어제로 끝났습니당</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>@woomsy0715</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>1.832736895314085e+16</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1708337034</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>C3WEtXxyi1A</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>18327368953140852</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>구매는 안되나여?</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1708335655</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>42187828330</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>woomsy0715</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>정영인</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>C3WEtXxyi1A</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>18020056082013057</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>가방 좀 오픈해주세요😮😍</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1708010621</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>5869303007</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>positive__0916</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>positive__0916</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>C3WEtXxyi1A</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>18009057284252055</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>😍😍</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1707951250</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>18125277733326774</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>척이 아니라 넘 이쁘세요😍</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>1708312149</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>1253667692</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>chunsa0917</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>고고은정</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>18041210197591262</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>넘므이뻥😍</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>1707389730</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>1280491390</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>happy_seoriyam</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>예비 뱀띠맘 🐍 | 임산부 👶🏻</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>17884343624947954</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>이쁩니다</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>1707355145</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>1514641173</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>shefree79</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>당당이=재희,재인 엄마</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>18411117148054047</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>아우터 오픈인건가요?</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>1707314694</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>1684944579</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>jjin212_16</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>혜지니</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>17995606976296185</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>핑크색..이쁘다..바비인형..이런느낌에요.한나님 피드에서 어릴때 사진봤는데 별이님 미모에 놀랬어요~~진짜 이쁨^^</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>1707301234</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>1560370533</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>kyjsystem</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>17996948366274444</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>어머나~중국 틱토커인줄알았어요^^화장끼없는 내추럴한 모습이 훨씬 더 예쁘세요👏👏</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>4</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>1707297390</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>1440320301</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>iihan_manii</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>18005244428123345</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>아우터 판매하주세요~~~🙌😍</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>1707297223</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>44715031512</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>thanksss07</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>18019671536069990</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>@silversu_days 오 저도요 무스탕 정보 궁금해요</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>@silversu_days</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1.805473689154513e+16</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>1707297003</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>57330392888</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>jazzpiamom</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>jazzpiamom</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>17921386256770102</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>핑크 잘어울려요~^^💓💞</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>1707296749</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>51983739447</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>hyeyeon303212</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>HYEYEON30321</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>17925573176749656</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>이쁜척 하는게 아니라 이쁘게 태어난건데요</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>8</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>1707296035</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>4476147786</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>mingu99999</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Mingu Seo</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>18089716045408392</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>별이님 아우터 모에용....혼자서 세상 이쁨 😍😍😍😍😍😍😍😍😍😍❤️❤️❤️❤️</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>1707295006</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>13360027470</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>eneye1004</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>박은옥</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>17943777680783993</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>미모가 영상 뚫고 나와요😍 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>1707294650</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2064651656</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>lovely__yuna15</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>17927172716827392</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>와 진짜 예뻐요💕💕💕🥹핑쿠핑쿠 인형같네요</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>1707294042</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>621587189</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>j_ravie</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>YOUNG JU #두아들맘#미술쌤 의 라운지🥂✨</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>17926509800748203</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>이뽀이뽀 바비인형같오👏❤️</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>1707293434</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>3046181363</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>parkjihye_0324</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Park ji hye</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>18141200713311081</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>이쁜척 안해도 이쁘심😍❤️</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>1707293237</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2932720122</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>flower_kkn</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>C3CelnTJ98X</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>18054736891545126</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>예쁜척 많이해주세용💖 별이님 넘 이쁘. 아우터 혹시 판매하시는 걸까요?</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>1707293093</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>1394718752</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>silversu_days</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>DM❌, 👨‍👩‍👧🌷☕🍺🍾🍩🛍🏌‍♀️🛩🏝</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>C2ZlUlGrwF6</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>18031885348798967</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>@theorohaejung 쪼아온니❤️</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>@theorohaejung</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1.8020396362841508e+16</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>1706447376</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>C2ZlUlGrwF6</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>18020396362841509</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>내년에가치가자🙌</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>1706396677</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>526488143</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>theorohaejung</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Hae Jung Kang</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>C2ZlUlGrwF6</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>18022306726815501</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>@emma_kimmm 젤 행복함 처음으로 이겼잖아 팀으로 해야하나봐🙌🙌🙌</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>@emma_kimmm</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1.7974078205653208e+16</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1705992970</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>1414520352</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>urimss_lee</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Urim’s 소소한 일상</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>C2ZlUlGrwF6</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>17974078205653208</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>언니 ㅋㅋㅋㅋ 우리 너무 기뻐해요 😂</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>1705985418</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>C2ZlUlGrwF6</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>18413164939050058</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>아 나도 골프😢노무 재밌었겠당!!😍</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>1705936560</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>200248342</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>sangah0612</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>💐🌸🎂🎳🏌️‍♀️⛳️</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>C2ZlUlGrwF6</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>17880503190007555</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>@reborn_0830 나 골프 안때려치면 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>@reborn_0830</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1.7863563120075004e+16</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>1705936013</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>1414520352</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>urimss_lee</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Urim’s 소소한 일상</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>C2ZlUlGrwF6</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>18027471172889075</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>@reborn_0830 내년에 같이가자 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>@reborn_0830</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>1.7863563120075004e+16</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>1705935943</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>1414520352</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>urimss_lee</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Urim’s 소소한 일상</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>C2ZlUlGrwF6</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>17863563120075003</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>아 나도 가고싶다😍 바로 다낭으로가면 되는데ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>1705935176</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>1413805042</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>reborn_0830</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Sung</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>C2ZlUlGrwF6</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>18022350946825925</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>👏</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>1705927068</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>C1ZjY6op-1y</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>18015650506905727</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>홈웨어 정보 궁금해요😃</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>1706453783</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>25598469494</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>torta_di_mele247</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>C1ZjY6op-1y</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>18296386690144436</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>까미구이 먹방😍😍</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>1703798226</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>5581210603</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>artsoyounh</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>이 소영</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>C1VwFMOpM4o</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>18055376362508068</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>@_gem_of_life_ 감사합니다 고객님! 다음 공구는 6-8개월뒤에 하니 수량 참고해주세욭</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>@_gem_of_life_</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1.8010059427967016e+16</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>1703665876</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>C1VwFMOpM4o</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>18010059427967015</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>항상 믿고, 공구때마다 구매합니다😍</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>1703648074</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>1700312038</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>_gem_of_life_</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>C1KC3bRJsQH</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>17907165953875860</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>팩 미백은 전혀 안되는건가봐요ㅎ</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>1703438313</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>1204566512</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>eeaeoo</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>C1KC3bRJsQH</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>17906494130813864</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>엥 공구 끝난건가요?</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>1703396777</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>4303694835</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>168_zang</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>샤랄라</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>C1KC3bRJsQH</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>18403881535015691</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>뮤렌은 사랑❤️ 별님 혹시 로아 목수건 정보(체리^^) 알려주실수 있을까유? 저도 넘 필요해서요😢</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>1703300658</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>3622558854</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>ej0329_love</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>C1KC3bRJsQH</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>18045503839569480</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>풀로 가쪄?😍</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>1703282615</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>1697733108</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>sennhan</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>seeun han</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>C1KC3bRJsQH</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>18017347321981624</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>😍😍😍</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>1703253734</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>C1KC3bRJsQH</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>17995622660456248</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>힝 스누피 잠옷 귀요미</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>1703252049</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>5581210603</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>artsoyounh</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>이 소영</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>C1CVdS5J2mL</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>18316118467190636</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>@wink1004_luvjhsy 15매 입니당 ❤️</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>@wink1004_luvjhsy</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>1.7879902043994324e+16</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>1703034767</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>363834960</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>emma_kimmm</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Emma Kim</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>C1CVdS5J2mL</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>17879902043994323</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>엠마 언니 하나만 여쭤볼께요 3번구매하면 총마스크팩이 몇장이에요? ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>1703003548</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>5468502316</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>wink1004_luvjhsy</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>beronwing_0529</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>C1CVdS5J2mL</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>18036028717634851</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>😍😍😍😍</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>1702993040</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>C0_xW5LpRzL</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>18048474094554941</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>늦은 시간까지 열일모드😍</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>1702913273</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>44353339881</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>reart_collector</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>컬렉터를 위한 나에게 필요한 미술사 ㅡ리아트 컬렉터</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>C0_xW5LpRzL</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>18044405221568047</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>안자고 뭐하는겨😍</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>1702913229</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>3046181363</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>parkjihye_0324</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Park ji hye</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>C0_xW5LpRzL</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>18009817610147930</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>😍😍😍</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>1702907171</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>17937673004774785</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>8년 연속 1위요^^ 별이님 믿고 구매해봅니다. 저의 장(?)에도 효과 있길 ❤️</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>1702219369</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>1543549443</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>blooming_yurhi</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>18017505031947872</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>8년 연속이요!!! 제가 직접 먹어보고 너무 좋아서, 부모님 드리려고 주문 완료했습니다😍❤️ 보관도 편하고 성분도 최고에요!</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>1702190783</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>1377614563</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>annie___ju</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>💍</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>17889765467956526</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>7년연속 1등제품이용❤️ 별님때문에 이유산균으로 정착햇서요</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>1702181732</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>1620154018</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>leeeeeeeeeee02</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>17890288673889215</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>정답은 8년연속❤️🔥 장예민이인 남편위해서 유산균 진짜 많이 공부해서 가든오브라이프에 정착해서 먹고있었는데, 별이님 공구가 가격이 좋아서 매번 구매해서 꾸준히 먹는중입니다😍</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>1702090649</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>3878657119</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>esfj.se</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>18276759085095031</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>8년이욤❤️❤️❤️👏👏👏와우</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>1702084755</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>1261538196</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>applemimi123</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>18300716089130252</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>정답 8️⃣년이요!! ~ 지난공구때 쟁여놓았던 데일리 여성 유산균 똑!하고 떨어질쯤 갖구와주셔서 감사드려요😍 진짜 별이님이 공구하시는건 다 인증된거라 믿구 먹어요! 글러벌유기농 전문이라 성분이며 친환경적이라 더 신뢰가 가요😍 데일리 여성 유산균이랑 마그네슘도 진짜 잘맞어서 지인들에게 추천도 많이했는데 이렇게 또 좋은가격에 갖구와주셨으니 또 공유 할게요💕</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>1702079880</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>932354382</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>_04x21_</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>04×21</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>17984868800599036</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>8년연속!! 어마어마한 기록이네용</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>1702078387</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>1418361809</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>a.r.won</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>17989380914301233</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>8년 ❤️</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>1702065081</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>61402986923</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>zs_0ss</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>Youngm</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>18014968780983682</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>7년 연속이요!!😍</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>1702051640</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>1700312038</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>_gem_of_life_</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>17883161084977523</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>8년 연속🩵 새로운 유산균 먹어보고 싶어요💙🤍</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>1702043589</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>1371799572</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>jjoyyyyyyyyy</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>거의 지유그램👧🏻</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>18061157158484940</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>@hye_s_who 헉 8년으로 정정요!!!</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>@hye_s_who</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>1.823630737622241e+16</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>1702023688</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>21427216762</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>hye_s_who</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>Hyei</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>18000255074085104</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>8년 연속이요😍 6통, 3통 주문했어요!^^</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>1702022981</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>1442074649</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>my_clovis</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>MYONEE</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>18041359345580138</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>행운의 7!! 7년연속이요 남성용 여성용 구매하고 꾸준히 먹고있어요♥️ 별님한테 3번째 구매했어요, 진짜 상온용 보관으로 편하고 또 아침 비슷한시간에 꼬~~옥 화장실가요...💩‼️</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>1702022298</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>1802326</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>jihee.lee_</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>Jihee Lee</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>17965827899664344</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>8년 연속 1등이요!❤️❤️❤️</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>1702022014</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>3960415162</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>gomstar012</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>18097636483372160</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>😍😍😍</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>1702020334</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>17996788901159832</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>8년🔥</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>1702019370</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>1659676738</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>yipeul</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>원온리</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>17930870417792635</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>8년 연속 1등이요🔥🔥🔥👍👍👍👍👍👍👍최고최고 믿고 먹는 유산균❤️</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>1702018298</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>644131628</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>w_dahye</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>우다혜</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>18047285356548622</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>8년❤️</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>1702016428</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>2217700775</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>ddak1109</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>18236307376222408</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>6통 주문시에 유산균종류 선택 옵션을 세심하게 해 놓으셔서 정말 맘에 딱 들게 주문할수 있었어요~ 역시 👍👍👍했다는요~
+정답은 두구두구 7년~ ^^</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>1702015493</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>21427216762</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>hye_s_who</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>Hyei</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>18276014431083015</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>8년 연속 1등 유산균이요👍😉</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>1702014278</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>10232175778</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>heungppung</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>흥뿡 🍭</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>18073277215439904</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>8년😍</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>1702012904</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>1631167773</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>s.h.lee__</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>18304408951131672</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>7년 뿅❤️</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>1702011515</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>1492461317</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>honey_ggyu</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>박소연</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>C0lEko-J3g5</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>18291573607146429</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>7년이요❤️❤️❤️❤️❤️❤️❤️</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>1702011256</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>6310829091</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>limsi3432</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>lim</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>C0i4ZLZJIGW</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>18132803728314418</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>구매완료❤️</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>1702022643</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>1802326</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>jihee.lee_</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>Jihee Lee</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>C0i4ZLZJIGW</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>18031002373670832</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>😍😍😍😍</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>1701938410</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>48357522731</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>hasoos_ib1</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>👑</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>C0i4ZLZJIGW</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>17863100007016399</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Piq</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>1701938084</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>478334917</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>xris_mas</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Xris B. †</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
